--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -586,8 +586,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.830625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -587,7 +587,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="25.550625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.830625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.160625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="21.370625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.700625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.910625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="17.360625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.910625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="17.360625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.970625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.350625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.970625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.350625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="23.360625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -589,8 +589,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.210625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="23.360625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.444464" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.91826" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -586,8 +586,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.220625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:t>Plain Text:</x:t>
   </x:si>
@@ -37,15 +37,6 @@
     <x:t>TimeSpan:</x:t>
   </x:si>
   <x:si>
-    <x:t>Decimal Number:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Float Number:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Double Number:</x:t>
-  </x:si>
-  <x:si>
     <x:t>Large Double Number:</x:t>
   </x:si>
   <x:si>
@@ -67,7 +58,7 @@
     <x:t>Boolean as Text:</x:t>
   </x:si>
   <x:si>
-    <x:t>True</x:t>
+    <x:t>TRUE</x:t>
   </x:si>
   <x:si>
     <x:t>Number as Text:</x:t>
@@ -86,66 +77,6 @@
   </x:si>
   <x:si>
     <x:t>1.09:45:22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Changing Data Types:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateTime to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40423.5731712963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boolean to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TimeSpan to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.40650462962963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text to Date:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text to DateTime:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text to Boolean:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text to Number:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Percentage Text to Number:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@ format to Number:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text to TimeSpan:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Formatted Date to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Formatted Number to Text:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12345.6789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blank Text:</x:t>
   </x:si>
   <x:si>
     <x:t>Inline String:</x:t>
@@ -155,11 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="4">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="@"/>
-    <x:numFmt numFmtId="166" formatCode="yyyy-MM-dd"/>
-    <x:numFmt numFmtId="167" formatCode="#,##0.00"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -197,7 +126,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -216,26 +145,8 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -257,30 +168,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -579,14 +466,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C44"/>
+  <x:dimension ref="A1:C19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.930625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.400625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="21.220625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -626,7 +513,7 @@
       <x:c r="B6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
+      <x:c r="C6" s="0">
         <x:v>123.45</x:v>
       </x:c>
     </x:row>
@@ -634,7 +521,7 @@
       <x:c r="B7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C7" s="3" t="n">
+      <x:c r="C7" s="3">
         <x:v>1.40650462962963</x:v>
       </x:c>
     </x:row>
@@ -642,226 +529,79 @@
       <x:c r="B9" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="n">
-        <x:v>123.45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="B10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="n">
-        <x:v>123.45</x:v>
+      <x:c r="C9" s="0">
+        <x:v>9.999E+307</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="B11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="n">
-        <x:v>123.45</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="4" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="B12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
-        <x:v>9.999E+307</x:v>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="B13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C13" s="4" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="B14" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="B15" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="B16" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C16" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C16" s="5">
+        <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="B17" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C17" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C17" s="5">
+        <x:v>123.45</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="B18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="B19" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C19" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="B20" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C20" s="5" t="n">
-        <x:v>123.45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="B21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C21" s="4" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="B23" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="B25" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="B26" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="B27" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:3">
-      <x:c r="B28" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="B29" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C29" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:3">
-      <x:c r="B30" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C30" s="6">
-        <x:v>40423</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="B31" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C31" s="7">
-        <x:v>40423.5731712963</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:3">
-      <x:c r="B32" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C32" s="4" t="b">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:3">
-      <x:c r="B33" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C33" s="4" t="n">
-        <x:v>123.45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:3">
-      <x:c r="B34" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C34" s="8" t="n">
-        <x:v>0.5512</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:3">
-      <x:c r="B35" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C35" s="5" t="n">
-        <x:v>123.45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:3">
-      <x:c r="B36" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C36" s="9" t="n">
-        <x:v>1.40650462962963</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:3">
-      <x:c r="B38" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C38" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:3">
-      <x:c r="B39" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C39" s="11" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:3">
-      <x:c r="B41" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C41" s="11" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:3">
-      <x:c r="B43" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="inlineStr">
+      <x:c r="C19" s="0" t="inlineStr">
         <x:is>
           <x:t>Not Shared</x:t>
         </x:is>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>Plain Text:</x:t>
   </x:si>
@@ -80,6 +80,12 @@
   </x:si>
   <x:si>
     <x:t>Inline String:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error from literal:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error from evaluation:</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -466,7 +472,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C19"/>
+  <x:dimension ref="A1:C22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -607,6 +613,22 @@
         </x:is>
       </x:c>
     </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="B21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="e">
+        <x:v>#VALUE!</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="B22" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C22" s="0">
+        <x:f>1/0</x:f>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Plain Text:</x:t>
   </x:si>
@@ -94,7 +94,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="@"/>
+    <x:numFmt numFmtId="164" formatCode="@"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -148,7 +148,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -173,7 +173,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -479,8 +479,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="22.400625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.220625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.567768" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:3">

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/DataTypes.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Data Types" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Data Types" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
